--- a/.archive/.uploads/BCE_Celto_Pricelist_Feb2026 - formatted data ready.xlsx
+++ b/.archive/.uploads/BCE_Celto_Pricelist_Feb2026 - formatted data ready.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garet\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8295B13-4396-4F7A-BBB4-C014A45FAA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6F0B37-F362-4878-9C8D-6F19D7805156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="383">
   <si>
     <t>Category</t>
   </si>
@@ -50,15 +50,6 @@
     <t>RSP</t>
   </si>
   <si>
-    <t>Cost Inc VAT</t>
-  </si>
-  <si>
-    <t>Cost Ex VAT</t>
-  </si>
-  <si>
-    <t>Selling Ex VAT (10% Disc)</t>
-  </si>
-  <si>
     <t>SUB-BASS</t>
   </si>
   <si>
@@ -1172,17 +1163,36 @@
     <t>Heavy drum stool with saddle seat</t>
   </si>
   <si>
-    <t>Selling Price (30% markup)</t>
+    <t>Cost Ex Vat</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Celto</t>
+  </si>
+  <si>
+    <t>RubiQube</t>
+  </si>
+  <si>
+    <t>Celto Acoustiq</t>
+  </si>
+  <si>
+    <t>Selling  Price Inc Vat</t>
+  </si>
+  <si>
+    <t>Cost Inc Vat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#\ ##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1196,6 +1206,13 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1212,7 +1229,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1235,18 +1252,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1549,21 +1589,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="54" customWidth="1"/>
-    <col min="4" max="4" width="60" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="27" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="2" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="54" customWidth="1"/>
+    <col min="5" max="5" width="133" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1574,3418 +1613,3418 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>379</v>
+      <c r="G1" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>11585</v>
       </c>
-      <c r="F2" s="2">
-        <v>9268</v>
-      </c>
-      <c r="G2" s="2">
-        <v>8059.13</v>
-      </c>
-      <c r="H2" s="2">
-        <v>9066.52</v>
-      </c>
-      <c r="I2" s="2">
-        <v>9429.18</v>
+      <c r="G2" s="3">
+        <v>7326.4818181818173</v>
+      </c>
+      <c r="H2" s="6">
+        <v>8425.4540909090883</v>
+      </c>
+      <c r="I2" s="6">
+        <v>10953.090318181816</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>378</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2">
         <v>36155</v>
       </c>
-      <c r="F3" s="2">
-        <v>28924</v>
-      </c>
-      <c r="G3" s="2">
-        <v>25151.3</v>
-      </c>
-      <c r="H3" s="2">
-        <v>28295.22</v>
-      </c>
-      <c r="I3" s="2">
-        <v>29427.02</v>
+      <c r="G3" s="3">
+        <v>22864.81818181818</v>
+      </c>
+      <c r="H3" s="6">
+        <v>26294.540909090905</v>
+      </c>
+      <c r="I3" s="6">
+        <v>34182.903181818176</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>378</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2">
         <v>27230</v>
       </c>
-      <c r="F4" s="2">
-        <v>21784</v>
-      </c>
-      <c r="G4" s="2">
-        <v>18942.61</v>
-      </c>
-      <c r="H4" s="2">
-        <v>21310.43</v>
-      </c>
-      <c r="I4" s="2">
-        <v>22162.85</v>
+      <c r="G4" s="3">
+        <v>17220.554545454546</v>
+      </c>
+      <c r="H4" s="6">
+        <v>19803.637727272726</v>
+      </c>
+      <c r="I4" s="6">
+        <v>25744.729045454544</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>378</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2">
         <v>37820</v>
       </c>
-      <c r="F5" s="2">
-        <v>30256</v>
-      </c>
-      <c r="G5" s="2">
-        <v>26309.57</v>
-      </c>
-      <c r="H5" s="2">
-        <v>29598.26</v>
-      </c>
-      <c r="I5" s="2">
-        <v>30782.2</v>
+      <c r="G5" s="3">
+        <v>23917.790909090905</v>
+      </c>
+      <c r="H5" s="6">
+        <v>27505.459545454538</v>
+      </c>
+      <c r="I5" s="6">
+        <v>35757.0974090909</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>378</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="2">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2">
         <v>14013</v>
       </c>
-      <c r="F6" s="2">
-        <v>11210</v>
-      </c>
-      <c r="G6" s="2">
-        <v>9747.83</v>
-      </c>
-      <c r="H6" s="2">
-        <v>10966.7</v>
-      </c>
-      <c r="I6" s="2">
-        <v>11404.96</v>
+      <c r="G6" s="3">
+        <v>8861.6636363636353</v>
+      </c>
+      <c r="H6" s="6">
+        <v>10190.91318181818</v>
+      </c>
+      <c r="I6" s="6">
+        <v>13248.187136363635</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>378</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="2">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2">
         <v>25618</v>
       </c>
-      <c r="F7" s="2">
-        <v>20494</v>
-      </c>
-      <c r="G7" s="2">
-        <v>17820.87</v>
-      </c>
-      <c r="H7" s="2">
-        <v>20048.87</v>
-      </c>
-      <c r="I7" s="2">
-        <v>20850.419999999998</v>
+      <c r="G7" s="3">
+        <v>16200.790909090907</v>
+      </c>
+      <c r="H7" s="6">
+        <v>18630.909545454542</v>
+      </c>
+      <c r="I7" s="6">
+        <v>24220.182409090907</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>378</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="2">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="2">
         <v>22212</v>
       </c>
-      <c r="F8" s="2">
-        <v>17769</v>
-      </c>
-      <c r="G8" s="2">
-        <v>15451.3</v>
-      </c>
-      <c r="H8" s="2">
-        <v>17383.3</v>
-      </c>
-      <c r="I8" s="2">
-        <v>18078.02</v>
+      <c r="G8" s="3">
+        <v>14046.636363636362</v>
+      </c>
+      <c r="H8" s="6">
+        <v>16153.631818181815</v>
+      </c>
+      <c r="I8" s="6">
+        <v>20999.721363636359</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>378</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="2">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="2">
         <v>11592</v>
       </c>
-      <c r="F9" s="2">
-        <v>9273</v>
-      </c>
-      <c r="G9" s="2">
-        <v>8063.48</v>
-      </c>
-      <c r="H9" s="2">
-        <v>9072</v>
-      </c>
-      <c r="I9" s="2">
-        <v>9434.27</v>
+      <c r="G9" s="3">
+        <v>7330.4363636363623</v>
+      </c>
+      <c r="H9" s="6">
+        <v>8430.0018181818159</v>
+      </c>
+      <c r="I9" s="6">
+        <v>10959.00236363636</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>378</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="2">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2">
         <v>18491</v>
       </c>
-      <c r="F10" s="2">
-        <v>14793</v>
-      </c>
-      <c r="G10" s="2">
-        <v>12863.48</v>
-      </c>
-      <c r="H10" s="2">
-        <v>14471.22</v>
-      </c>
-      <c r="I10" s="2">
-        <v>15050.27</v>
+      <c r="G10" s="3">
+        <v>11694.072727272725</v>
+      </c>
+      <c r="H10" s="6">
+        <v>13448.183636363634</v>
+      </c>
+      <c r="I10" s="6">
+        <v>17482.638727272726</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>378</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
         <v>36</v>
       </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>24525</v>
       </c>
-      <c r="F11" s="2">
-        <v>19620</v>
-      </c>
-      <c r="G11" s="2">
-        <v>17060.87</v>
-      </c>
-      <c r="H11" s="2">
-        <v>19193.48</v>
-      </c>
-      <c r="I11" s="2">
-        <v>19961.22</v>
+      <c r="G11" s="3">
+        <v>15509.881818181815</v>
+      </c>
+      <c r="H11" s="6">
+        <v>17836.364090909086</v>
+      </c>
+      <c r="I11" s="6">
+        <v>23187.273318181815</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>378</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="2">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="2">
         <v>21772</v>
       </c>
-      <c r="F12" s="2">
-        <v>17417</v>
-      </c>
-      <c r="G12" s="2">
-        <v>15145.22</v>
-      </c>
-      <c r="H12" s="2">
-        <v>17038.96</v>
-      </c>
-      <c r="I12" s="2">
-        <v>17719.91</v>
+      <c r="G12" s="3">
+        <v>13768.381818181817</v>
+      </c>
+      <c r="H12" s="6">
+        <v>15833.639090909088</v>
+      </c>
+      <c r="I12" s="6">
+        <v>20583.730818181815</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>378</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="2">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="2">
         <v>35712</v>
       </c>
-      <c r="F13" s="2">
-        <v>28569</v>
-      </c>
-      <c r="G13" s="2">
-        <v>24842.61</v>
-      </c>
-      <c r="H13" s="2">
-        <v>27948.52</v>
-      </c>
-      <c r="I13" s="2">
-        <v>29065.85</v>
+      <c r="G13" s="3">
+        <v>22584.190909090907</v>
+      </c>
+      <c r="H13" s="6">
+        <v>25971.819545454542</v>
+      </c>
+      <c r="I13" s="6">
+        <v>33763.365409090904</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>378</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="2">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="2">
         <v>21640</v>
       </c>
-      <c r="F14" s="2">
-        <v>17312</v>
-      </c>
-      <c r="G14" s="2">
-        <v>15053.91</v>
-      </c>
-      <c r="H14" s="2">
-        <v>16935.650000000001</v>
-      </c>
-      <c r="I14" s="2">
-        <v>17613.07</v>
+      <c r="G14" s="3">
+        <v>13685.372727272726</v>
+      </c>
+      <c r="H14" s="6">
+        <v>15738.178636363635</v>
+      </c>
+      <c r="I14" s="6">
+        <v>20459.632227272727</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="2">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="2">
         <v>35515</v>
       </c>
-      <c r="F15" s="2">
-        <v>28410</v>
-      </c>
-      <c r="G15" s="2">
-        <v>24704.35</v>
-      </c>
-      <c r="H15" s="2">
-        <v>27794.35</v>
-      </c>
-      <c r="I15" s="2">
-        <v>28904.09</v>
+      <c r="G15" s="3">
+        <v>22458.499999999996</v>
+      </c>
+      <c r="H15" s="6">
+        <v>25827.274999999994</v>
+      </c>
+      <c r="I15" s="6">
+        <v>33575.457499999997</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>378</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
         <v>52</v>
       </c>
-      <c r="B16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <v>11368</v>
       </c>
-      <c r="F16" s="2">
-        <v>9094</v>
-      </c>
-      <c r="G16" s="2">
-        <v>7907.83</v>
-      </c>
-      <c r="H16" s="2">
-        <v>8896.7000000000007</v>
-      </c>
-      <c r="I16" s="2">
-        <v>9252.16</v>
+      <c r="G16" s="3">
+        <v>7188.9363636363632</v>
+      </c>
+      <c r="H16" s="6">
+        <v>8267.2768181818174</v>
+      </c>
+      <c r="I16" s="6">
+        <v>10747.459863636363</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>378</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
         <v>56</v>
       </c>
-      <c r="B17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="F17" s="2">
         <v>11735</v>
       </c>
-      <c r="F17" s="2">
-        <v>9388</v>
-      </c>
-      <c r="G17" s="2">
-        <v>8163.48</v>
-      </c>
-      <c r="H17" s="2">
-        <v>9183.91</v>
-      </c>
-      <c r="I17" s="2">
-        <v>9551.27</v>
+      <c r="G17" s="3">
+        <v>7421.3454545454533</v>
+      </c>
+      <c r="H17" s="6">
+        <v>8534.54727272727</v>
+      </c>
+      <c r="I17" s="6">
+        <v>11094.911454545452</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>378</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" t="s">
         <v>60</v>
       </c>
-      <c r="B18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="F18" s="2">
         <v>8819</v>
       </c>
-      <c r="F18" s="2">
-        <v>7055</v>
-      </c>
-      <c r="G18" s="2">
-        <v>6134.78</v>
-      </c>
-      <c r="H18" s="2">
-        <v>6901.83</v>
-      </c>
-      <c r="I18" s="2">
-        <v>7177.69</v>
+      <c r="G18" s="3">
+        <v>5577.0727272727263</v>
+      </c>
+      <c r="H18" s="6">
+        <v>6413.6336363636347</v>
+      </c>
+      <c r="I18" s="6">
+        <v>8337.7237272727252</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>378</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="2">
+        <v>62</v>
+      </c>
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="2">
         <v>10138</v>
       </c>
-      <c r="F19" s="2">
-        <v>8111</v>
-      </c>
-      <c r="G19" s="2">
-        <v>7053.04</v>
-      </c>
-      <c r="H19" s="2">
-        <v>7934.09</v>
-      </c>
-      <c r="I19" s="2">
-        <v>8252.06</v>
+      <c r="G19" s="3">
+        <v>6411.8545454545447</v>
+      </c>
+      <c r="H19" s="6">
+        <v>7373.6327272727258</v>
+      </c>
+      <c r="I19" s="6">
+        <v>9585.7225454545442</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>378</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="2">
+        <v>65</v>
+      </c>
+      <c r="E20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="2">
         <v>9953</v>
       </c>
-      <c r="F20" s="2">
-        <v>7962</v>
-      </c>
-      <c r="G20" s="2">
-        <v>6923.48</v>
-      </c>
-      <c r="H20" s="2">
-        <v>7789.3</v>
-      </c>
-      <c r="I20" s="2">
-        <v>8100.47</v>
+      <c r="G20" s="3">
+        <v>6294.0727272727263</v>
+      </c>
+      <c r="H20" s="6">
+        <v>7238.1836363636348</v>
+      </c>
+      <c r="I20" s="6">
+        <v>9409.6387272727261</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>378</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="2">
+        <v>68</v>
+      </c>
+      <c r="E21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="2">
         <v>37700</v>
       </c>
-      <c r="F21" s="2">
-        <v>30160</v>
-      </c>
-      <c r="G21" s="2">
-        <v>26226.09</v>
-      </c>
-      <c r="H21" s="2">
-        <v>29504.35</v>
-      </c>
-      <c r="I21" s="2">
-        <v>30684.53</v>
+      <c r="G21" s="3">
+        <v>23841.899999999998</v>
+      </c>
+      <c r="H21" s="6">
+        <v>27418.184999999994</v>
+      </c>
+      <c r="I21" s="6">
+        <v>35643.640499999994</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>378</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="2">
+        <v>71</v>
+      </c>
+      <c r="E22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="2">
         <v>11094</v>
       </c>
-      <c r="F22" s="2">
-        <v>8875</v>
-      </c>
-      <c r="G22" s="2">
-        <v>7717.39</v>
-      </c>
-      <c r="H22" s="2">
-        <v>8682.26</v>
-      </c>
-      <c r="I22" s="2">
-        <v>9029.35</v>
+      <c r="G22" s="3">
+        <v>7015.8090909090906</v>
+      </c>
+      <c r="H22" s="6">
+        <v>8068.1804545454534</v>
+      </c>
+      <c r="I22" s="6">
+        <v>10488.634590909091</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>378</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="2">
+        <v>74</v>
+      </c>
+      <c r="E23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="2">
         <v>13972</v>
       </c>
-      <c r="F23" s="2">
-        <v>11178</v>
-      </c>
-      <c r="G23" s="2">
-        <v>9720</v>
-      </c>
-      <c r="H23" s="2">
-        <v>10934.61</v>
-      </c>
-      <c r="I23" s="2">
-        <v>11372.4</v>
+      <c r="G23" s="3">
+        <v>8836.363636363636</v>
+      </c>
+      <c r="H23" s="6">
+        <v>10161.81818181818</v>
+      </c>
+      <c r="I23" s="6">
+        <v>13210.363636363634</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>378</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="2">
+        <v>77</v>
+      </c>
+      <c r="E24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="2">
         <v>11614</v>
       </c>
-      <c r="F24" s="2">
-        <v>9291</v>
-      </c>
-      <c r="G24" s="2">
-        <v>8079.13</v>
-      </c>
-      <c r="H24" s="2">
-        <v>9089.2199999999993</v>
-      </c>
-      <c r="I24" s="2">
-        <v>9452.58</v>
+      <c r="G24" s="3">
+        <v>7344.6636363636362</v>
+      </c>
+      <c r="H24" s="6">
+        <v>8446.3631818181802</v>
+      </c>
+      <c r="I24" s="6">
+        <v>10980.272136363636</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>378</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="2">
+        <v>80</v>
+      </c>
+      <c r="E25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="2">
         <v>17015</v>
       </c>
-      <c r="F25" s="2">
-        <v>13612</v>
-      </c>
-      <c r="G25" s="2">
-        <v>11836.52</v>
-      </c>
-      <c r="H25" s="2">
-        <v>13316.09</v>
-      </c>
-      <c r="I25" s="2">
-        <v>13848.73</v>
+      <c r="G25" s="3">
+        <v>10760.472727272727</v>
+      </c>
+      <c r="H25" s="6">
+        <v>12374.543636363635</v>
+      </c>
+      <c r="I25" s="6">
+        <v>16086.906727272726</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" t="s">
+        <v>378</v>
+      </c>
+      <c r="D26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" t="s">
         <v>85</v>
       </c>
-      <c r="B26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" s="2">
+      <c r="F26" s="2">
         <v>4392</v>
       </c>
-      <c r="F26" s="2">
-        <v>3513</v>
-      </c>
-      <c r="G26" s="2">
-        <v>3054.78</v>
-      </c>
-      <c r="H26" s="2">
-        <v>3437.22</v>
-      </c>
-      <c r="I26" s="2">
-        <v>3574.09</v>
+      <c r="G26" s="3">
+        <v>2777.0727272727272</v>
+      </c>
+      <c r="H26" s="6">
+        <v>3193.633636363636</v>
+      </c>
+      <c r="I26" s="6">
+        <v>4151.723727272727</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>378</v>
       </c>
       <c r="D27" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="2">
+        <v>87</v>
+      </c>
+      <c r="E27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="2">
         <v>4438</v>
       </c>
-      <c r="F27" s="2">
-        <v>3550</v>
-      </c>
-      <c r="G27" s="2">
-        <v>3086.96</v>
-      </c>
-      <c r="H27" s="2">
-        <v>3473.22</v>
-      </c>
-      <c r="I27" s="2">
-        <v>3611.74</v>
+      <c r="G27" s="3">
+        <v>2806.3272727272724</v>
+      </c>
+      <c r="H27" s="6">
+        <v>3227.2763636363629</v>
+      </c>
+      <c r="I27" s="6">
+        <v>4195.459272727272</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>378</v>
       </c>
       <c r="D28" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" s="2">
+        <v>90</v>
+      </c>
+      <c r="E28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="2">
         <v>5059</v>
       </c>
-      <c r="F28" s="2">
-        <v>4047</v>
-      </c>
-      <c r="G28" s="2">
-        <v>3519.13</v>
-      </c>
-      <c r="H28" s="2">
-        <v>3959.22</v>
-      </c>
-      <c r="I28" s="2">
-        <v>4117.38</v>
+      <c r="G28" s="3">
+        <v>3199.2090909090907</v>
+      </c>
+      <c r="H28" s="6">
+        <v>3679.0904545454541</v>
+      </c>
+      <c r="I28" s="6">
+        <v>4782.8175909090905</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>378</v>
       </c>
       <c r="D29" t="s">
-        <v>97</v>
-      </c>
-      <c r="E29" s="2">
+        <v>93</v>
+      </c>
+      <c r="E29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29" s="2">
         <v>5669</v>
       </c>
-      <c r="F29" s="2">
-        <v>4535</v>
-      </c>
-      <c r="G29" s="2">
-        <v>3943.48</v>
-      </c>
-      <c r="H29" s="2">
-        <v>4436.6099999999997</v>
-      </c>
-      <c r="I29" s="2">
-        <v>4613.87</v>
+      <c r="G29" s="3">
+        <v>3584.9818181818177</v>
+      </c>
+      <c r="H29" s="6">
+        <v>4122.7290909090898</v>
+      </c>
+      <c r="I29" s="6">
+        <v>5359.5478181818171</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
+        <v>378</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
-      </c>
-      <c r="E30" s="2">
+        <v>96</v>
+      </c>
+      <c r="E30" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="2">
         <v>5903</v>
       </c>
-      <c r="F30" s="2">
-        <v>4722</v>
-      </c>
-      <c r="G30" s="2">
-        <v>4106.09</v>
-      </c>
-      <c r="H30" s="2">
-        <v>4619.74</v>
-      </c>
-      <c r="I30" s="2">
-        <v>4804.13</v>
+      <c r="G30" s="3">
+        <v>3732.8090909090906</v>
+      </c>
+      <c r="H30" s="6">
+        <v>4292.7304545454535</v>
+      </c>
+      <c r="I30" s="6">
+        <v>5580.5495909090896</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>378</v>
       </c>
       <c r="D31" t="s">
-        <v>103</v>
-      </c>
-      <c r="E31" s="2">
+        <v>99</v>
+      </c>
+      <c r="E31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="2">
         <v>6254</v>
       </c>
-      <c r="F31" s="2">
-        <v>5003</v>
-      </c>
-      <c r="G31" s="2">
-        <v>4350.43</v>
-      </c>
-      <c r="H31" s="2">
-        <v>4894.43</v>
-      </c>
-      <c r="I31" s="2">
-        <v>5090</v>
+      <c r="G31" s="3">
+        <v>3954.9363636363637</v>
+      </c>
+      <c r="H31" s="6">
+        <v>4548.1768181818179</v>
+      </c>
+      <c r="I31" s="6">
+        <v>5912.6298636363636</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C32" t="s">
-        <v>105</v>
+        <v>378</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
-      </c>
-      <c r="E32" s="2">
+        <v>102</v>
+      </c>
+      <c r="E32" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" s="2">
         <v>6425</v>
       </c>
-      <c r="F32" s="2">
-        <v>5140</v>
-      </c>
-      <c r="G32" s="2">
-        <v>4469.57</v>
-      </c>
-      <c r="H32" s="2">
-        <v>5028.26</v>
-      </c>
-      <c r="I32" s="2">
-        <v>5229.3999999999996</v>
+      <c r="G32" s="3">
+        <v>4063.2454545454539</v>
+      </c>
+      <c r="H32" s="6">
+        <v>4672.7322727272713</v>
+      </c>
+      <c r="I32" s="6">
+        <v>6074.5519545454526</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>378</v>
       </c>
       <c r="D33" t="s">
-        <v>109</v>
-      </c>
-      <c r="E33" s="2">
+        <v>105</v>
+      </c>
+      <c r="E33" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33" s="2">
         <v>6425</v>
       </c>
-      <c r="F33" s="2">
-        <v>5140</v>
-      </c>
-      <c r="G33" s="2">
-        <v>4469.57</v>
-      </c>
-      <c r="H33" s="2">
-        <v>5028.26</v>
-      </c>
-      <c r="I33" s="2">
-        <v>5229.3999999999996</v>
+      <c r="G33" s="3">
+        <v>4063.2454545454539</v>
+      </c>
+      <c r="H33" s="6">
+        <v>4672.7322727272713</v>
+      </c>
+      <c r="I33" s="6">
+        <v>6074.5519545454526</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>378</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
-      </c>
-      <c r="E34" s="2">
+        <v>108</v>
+      </c>
+      <c r="E34" t="s">
+        <v>109</v>
+      </c>
+      <c r="F34" s="2">
         <v>7113</v>
       </c>
-      <c r="F34" s="2">
-        <v>5690</v>
-      </c>
-      <c r="G34" s="2">
-        <v>4947.83</v>
-      </c>
-      <c r="H34" s="2">
-        <v>5566.7</v>
-      </c>
-      <c r="I34" s="2">
-        <v>5788.96</v>
+      <c r="G34" s="3">
+        <v>4498.0272727272722</v>
+      </c>
+      <c r="H34" s="6">
+        <v>5172.7313636363624</v>
+      </c>
+      <c r="I34" s="6">
+        <v>6724.5507727272716</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B35" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>378</v>
       </c>
       <c r="D35" t="s">
-        <v>115</v>
-      </c>
-      <c r="E35" s="2">
+        <v>111</v>
+      </c>
+      <c r="E35" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" s="2">
         <v>8632</v>
       </c>
-      <c r="F35" s="2">
-        <v>6905</v>
-      </c>
-      <c r="G35" s="2">
-        <v>6004.35</v>
-      </c>
-      <c r="H35" s="2">
-        <v>6755.48</v>
-      </c>
-      <c r="I35" s="2">
-        <v>7025.09</v>
+      <c r="G35" s="3">
+        <v>5458.5</v>
+      </c>
+      <c r="H35" s="6">
+        <v>6277.2749999999996</v>
+      </c>
+      <c r="I35" s="6">
+        <v>8160.4574999999995</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B36" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C36" t="s">
-        <v>117</v>
+        <v>378</v>
       </c>
       <c r="D36" t="s">
-        <v>118</v>
-      </c>
-      <c r="E36" s="2">
+        <v>114</v>
+      </c>
+      <c r="E36" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" s="2">
         <v>8716</v>
       </c>
-      <c r="F36" s="2">
-        <v>6973</v>
-      </c>
-      <c r="G36" s="2">
-        <v>6063.48</v>
-      </c>
-      <c r="H36" s="2">
-        <v>6821.22</v>
-      </c>
-      <c r="I36" s="2">
-        <v>7094.27</v>
+      <c r="G36" s="3">
+        <v>5512.2545454545443</v>
+      </c>
+      <c r="H36" s="6">
+        <v>6339.0927272727258</v>
+      </c>
+      <c r="I36" s="6">
+        <v>8240.8205454545441</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C37" t="s">
-        <v>120</v>
+        <v>378</v>
       </c>
       <c r="D37" t="s">
-        <v>121</v>
-      </c>
-      <c r="E37" s="2">
+        <v>117</v>
+      </c>
+      <c r="E37" t="s">
+        <v>118</v>
+      </c>
+      <c r="F37" s="2">
         <v>8027</v>
       </c>
-      <c r="F37" s="2">
-        <v>6421</v>
-      </c>
-      <c r="G37" s="2">
-        <v>5583.48</v>
-      </c>
-      <c r="H37" s="2">
-        <v>6282</v>
-      </c>
-      <c r="I37" s="2">
-        <v>6532.67</v>
+      <c r="G37" s="3">
+        <v>5075.8909090909083</v>
+      </c>
+      <c r="H37" s="6">
+        <v>5837.2745454545438</v>
+      </c>
+      <c r="I37" s="6">
+        <v>7588.4569090909072</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B38" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
+        <v>378</v>
       </c>
       <c r="D38" t="s">
-        <v>124</v>
-      </c>
-      <c r="E38" s="2">
+        <v>120</v>
+      </c>
+      <c r="E38" t="s">
+        <v>121</v>
+      </c>
+      <c r="F38" s="2">
         <v>6410</v>
       </c>
-      <c r="F38" s="2">
-        <v>5128</v>
-      </c>
-      <c r="G38" s="2">
-        <v>4459.13</v>
-      </c>
-      <c r="H38" s="2">
-        <v>5016.5200000000004</v>
-      </c>
-      <c r="I38" s="2">
-        <v>5217.18</v>
+      <c r="G38" s="3">
+        <v>4053.7545454545452</v>
+      </c>
+      <c r="H38" s="6">
+        <v>4661.8177272727271</v>
+      </c>
+      <c r="I38" s="6">
+        <v>6060.3630454545455</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C39" t="s">
-        <v>126</v>
+        <v>378</v>
       </c>
       <c r="D39" t="s">
-        <v>127</v>
-      </c>
-      <c r="E39" s="2">
+        <v>123</v>
+      </c>
+      <c r="E39" t="s">
+        <v>124</v>
+      </c>
+      <c r="F39" s="2">
         <v>7875</v>
       </c>
-      <c r="F39" s="2">
-        <v>6300</v>
-      </c>
-      <c r="G39" s="2">
-        <v>5478.26</v>
-      </c>
-      <c r="H39" s="2">
-        <v>6163.04</v>
-      </c>
-      <c r="I39" s="2">
-        <v>6409.56</v>
+      <c r="G39" s="3">
+        <v>4980.2363636363634</v>
+      </c>
+      <c r="H39" s="6">
+        <v>5727.2718181818173</v>
+      </c>
+      <c r="I39" s="6">
+        <v>7445.4533636363631</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C40" t="s">
-        <v>129</v>
+        <v>378</v>
       </c>
       <c r="D40" t="s">
-        <v>130</v>
-      </c>
-      <c r="E40" s="2">
+        <v>126</v>
+      </c>
+      <c r="E40" t="s">
+        <v>127</v>
+      </c>
+      <c r="F40" s="2">
         <v>9405</v>
       </c>
-      <c r="F40" s="2">
-        <v>7524</v>
-      </c>
-      <c r="G40" s="2">
-        <v>6542.61</v>
-      </c>
-      <c r="H40" s="2">
-        <v>7360.43</v>
-      </c>
-      <c r="I40" s="2">
-        <v>7654.85</v>
+      <c r="G40" s="3">
+        <v>5947.8272727272715</v>
+      </c>
+      <c r="H40" s="6">
+        <v>6840.0013636363619</v>
+      </c>
+      <c r="I40" s="6">
+        <v>8892.0017727272716</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C41" t="s">
-        <v>132</v>
+        <v>378</v>
       </c>
       <c r="D41" t="s">
-        <v>133</v>
-      </c>
-      <c r="E41" s="2">
+        <v>129</v>
+      </c>
+      <c r="E41" t="s">
+        <v>130</v>
+      </c>
+      <c r="F41" s="2">
         <v>9763</v>
       </c>
-      <c r="F41" s="2">
-        <v>7810</v>
-      </c>
-      <c r="G41" s="2">
-        <v>6791.3</v>
-      </c>
-      <c r="H41" s="2">
-        <v>7640.61</v>
-      </c>
-      <c r="I41" s="2">
-        <v>7945.82</v>
+      <c r="G41" s="3">
+        <v>6173.909090909091</v>
+      </c>
+      <c r="H41" s="6">
+        <v>7099.9954545454539</v>
+      </c>
+      <c r="I41" s="6">
+        <v>9229.994090909091</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C42" t="s">
-        <v>135</v>
+        <v>378</v>
       </c>
       <c r="D42" t="s">
-        <v>136</v>
-      </c>
-      <c r="E42" s="2">
+        <v>132</v>
+      </c>
+      <c r="E42" t="s">
+        <v>133</v>
+      </c>
+      <c r="F42" s="2">
         <v>10722</v>
       </c>
-      <c r="F42" s="2">
-        <v>8577</v>
-      </c>
-      <c r="G42" s="2">
-        <v>7458.26</v>
-      </c>
-      <c r="H42" s="2">
-        <v>8391.1299999999992</v>
-      </c>
-      <c r="I42" s="2">
-        <v>8726.16</v>
+      <c r="G42" s="3">
+        <v>6780.2363636363634</v>
+      </c>
+      <c r="H42" s="6">
+        <v>7797.2718181818173</v>
+      </c>
+      <c r="I42" s="6">
+        <v>10136.453363636363</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B43" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C43" t="s">
-        <v>138</v>
+        <v>378</v>
       </c>
       <c r="D43" t="s">
-        <v>139</v>
-      </c>
-      <c r="E43" s="2">
+        <v>135</v>
+      </c>
+      <c r="E43" t="s">
+        <v>136</v>
+      </c>
+      <c r="F43" s="2">
         <v>8312</v>
       </c>
-      <c r="F43" s="2">
-        <v>6649</v>
-      </c>
-      <c r="G43" s="2">
-        <v>5781.74</v>
-      </c>
-      <c r="H43" s="2">
-        <v>6505.04</v>
-      </c>
-      <c r="I43" s="2">
-        <v>6764.64</v>
+      <c r="G43" s="3">
+        <v>5256.1272727272717</v>
+      </c>
+      <c r="H43" s="6">
+        <v>6044.546363636362</v>
+      </c>
+      <c r="I43" s="6">
+        <v>7857.9102727272711</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C44" t="s">
-        <v>141</v>
+        <v>378</v>
       </c>
       <c r="D44" t="s">
-        <v>142</v>
-      </c>
-      <c r="E44" s="2">
+        <v>138</v>
+      </c>
+      <c r="E44" t="s">
+        <v>139</v>
+      </c>
+      <c r="F44" s="2">
         <v>9008</v>
       </c>
-      <c r="F44" s="2">
-        <v>7206</v>
-      </c>
-      <c r="G44" s="2">
-        <v>6266.09</v>
-      </c>
-      <c r="H44" s="2">
-        <v>7049.74</v>
-      </c>
-      <c r="I44" s="2">
-        <v>7331.33</v>
+      <c r="G44" s="3">
+        <v>5696.4454545454546</v>
+      </c>
+      <c r="H44" s="6">
+        <v>6550.9122727272725</v>
+      </c>
+      <c r="I44" s="6">
+        <v>8516.1859545454554</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B45" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C45" t="s">
-        <v>144</v>
+        <v>378</v>
       </c>
       <c r="D45" t="s">
-        <v>145</v>
-      </c>
-      <c r="E45" s="2">
+        <v>141</v>
+      </c>
+      <c r="E45" t="s">
+        <v>142</v>
+      </c>
+      <c r="F45" s="2">
         <v>8763</v>
       </c>
-      <c r="F45" s="2">
-        <v>7011</v>
-      </c>
-      <c r="G45" s="2">
-        <v>6096.52</v>
-      </c>
-      <c r="H45" s="2">
-        <v>6858</v>
-      </c>
-      <c r="I45" s="2">
-        <v>7132.93</v>
+      <c r="G45" s="3">
+        <v>5542.2909090909088</v>
+      </c>
+      <c r="H45" s="6">
+        <v>6373.6345454545444</v>
+      </c>
+      <c r="I45" s="6">
+        <v>8285.7249090909081</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" t="s">
+        <v>378</v>
+      </c>
+      <c r="D46" t="s">
+        <v>145</v>
+      </c>
+      <c r="E46" t="s">
         <v>146</v>
       </c>
-      <c r="B46" t="s">
-        <v>147</v>
-      </c>
-      <c r="C46" t="s">
-        <v>148</v>
-      </c>
-      <c r="D46" t="s">
-        <v>149</v>
-      </c>
-      <c r="E46" s="2">
+      <c r="F46" s="2">
         <v>6604</v>
       </c>
-      <c r="F46" s="2">
-        <v>5283</v>
-      </c>
-      <c r="G46" s="2">
-        <v>4593.91</v>
-      </c>
-      <c r="H46" s="2">
-        <v>5168.3500000000004</v>
-      </c>
-      <c r="I46" s="2">
-        <v>5374.87</v>
+      <c r="G46" s="3">
+        <v>4176.2818181818175</v>
+      </c>
+      <c r="H46" s="6">
+        <v>4802.7240909090897</v>
+      </c>
+      <c r="I46" s="6">
+        <v>6243.5413181818167</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B47" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C47" t="s">
-        <v>151</v>
+        <v>378</v>
       </c>
       <c r="D47" t="s">
-        <v>152</v>
-      </c>
-      <c r="E47" s="2">
+        <v>148</v>
+      </c>
+      <c r="E47" t="s">
+        <v>149</v>
+      </c>
+      <c r="F47" s="2">
         <v>8609</v>
       </c>
-      <c r="F47" s="2">
-        <v>6887</v>
-      </c>
-      <c r="G47" s="2">
-        <v>5988.7</v>
-      </c>
-      <c r="H47" s="2">
-        <v>6737.48</v>
-      </c>
-      <c r="I47" s="2">
-        <v>7006.78</v>
+      <c r="G47" s="3">
+        <v>5444.272727272727</v>
+      </c>
+      <c r="H47" s="6">
+        <v>6260.9136363636353</v>
+      </c>
+      <c r="I47" s="6">
+        <v>8139.1877272727261</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B48" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C48" t="s">
-        <v>154</v>
+        <v>378</v>
       </c>
       <c r="D48" t="s">
-        <v>155</v>
-      </c>
-      <c r="E48" s="2">
+        <v>151</v>
+      </c>
+      <c r="E48" t="s">
+        <v>152</v>
+      </c>
+      <c r="F48" s="2">
         <v>13523</v>
       </c>
-      <c r="F48" s="2">
-        <v>10818</v>
-      </c>
-      <c r="G48" s="2">
-        <v>9406.9599999999991</v>
-      </c>
-      <c r="H48" s="2">
-        <v>10583.22</v>
-      </c>
-      <c r="I48" s="2">
-        <v>11006.14</v>
+      <c r="G48" s="3">
+        <v>8551.7818181818166</v>
+      </c>
+      <c r="H48" s="6">
+        <v>9834.5490909090877</v>
+      </c>
+      <c r="I48" s="6">
+        <v>12784.913818181814</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B49" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C49" t="s">
-        <v>157</v>
+        <v>378</v>
       </c>
       <c r="D49" t="s">
-        <v>158</v>
-      </c>
-      <c r="E49" s="2">
+        <v>154</v>
+      </c>
+      <c r="E49" t="s">
+        <v>155</v>
+      </c>
+      <c r="F49" s="2">
         <v>14258</v>
       </c>
-      <c r="F49" s="2">
-        <v>11406</v>
-      </c>
-      <c r="G49" s="2">
-        <v>9918.26</v>
-      </c>
-      <c r="H49" s="2">
-        <v>11158.43</v>
-      </c>
-      <c r="I49" s="2">
-        <v>11604.36</v>
+      <c r="G49" s="3">
+        <v>9016.6</v>
+      </c>
+      <c r="H49" s="6">
+        <v>10369.09</v>
+      </c>
+      <c r="I49" s="6">
+        <v>13479.817000000001</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B50" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C50" t="s">
-        <v>160</v>
+        <v>378</v>
       </c>
       <c r="D50" t="s">
-        <v>161</v>
-      </c>
-      <c r="E50" s="2">
+        <v>157</v>
+      </c>
+      <c r="E50" t="s">
+        <v>158</v>
+      </c>
+      <c r="F50" s="2">
         <v>18183</v>
       </c>
-      <c r="F50" s="2">
-        <v>14546</v>
-      </c>
-      <c r="G50" s="2">
-        <v>12648.7</v>
-      </c>
-      <c r="H50" s="2">
-        <v>14230.17</v>
-      </c>
-      <c r="I50" s="2">
-        <v>14798.98</v>
+      <c r="G50" s="3">
+        <v>11498.818181818182</v>
+      </c>
+      <c r="H50" s="6">
+        <v>13223.640909090907</v>
+      </c>
+      <c r="I50" s="6">
+        <v>17190.733181818181</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B51" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C51" t="s">
-        <v>163</v>
+        <v>378</v>
       </c>
       <c r="D51" t="s">
-        <v>164</v>
-      </c>
-      <c r="E51" s="2">
+        <v>160</v>
+      </c>
+      <c r="E51" t="s">
+        <v>161</v>
+      </c>
+      <c r="F51" s="2">
         <v>32240</v>
       </c>
-      <c r="F51" s="2">
-        <v>25792</v>
-      </c>
-      <c r="G51" s="2">
-        <v>22427.83</v>
-      </c>
-      <c r="H51" s="2">
-        <v>25231.3</v>
-      </c>
-      <c r="I51" s="2">
-        <v>26240.560000000001</v>
+      <c r="G51" s="3">
+        <v>20388.936363636363</v>
+      </c>
+      <c r="H51" s="6">
+        <v>23447.276818181817</v>
+      </c>
+      <c r="I51" s="6">
+        <v>30481.459863636363</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B52" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C52" t="s">
-        <v>166</v>
+        <v>378</v>
       </c>
       <c r="D52" t="s">
-        <v>167</v>
-      </c>
-      <c r="E52" s="2">
+        <v>163</v>
+      </c>
+      <c r="E52" t="s">
+        <v>164</v>
+      </c>
+      <c r="F52" s="2">
         <v>29722</v>
       </c>
-      <c r="F52" s="2">
-        <v>23777</v>
-      </c>
-      <c r="G52" s="2">
-        <v>20675.650000000001</v>
-      </c>
-      <c r="H52" s="2">
-        <v>23260.7</v>
-      </c>
-      <c r="I52" s="2">
-        <v>24190.51</v>
+      <c r="G52" s="3">
+        <v>18796.045454545456</v>
+      </c>
+      <c r="H52" s="6">
+        <v>21615.452272727274</v>
+      </c>
+      <c r="I52" s="6">
+        <v>28100.087954545459</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>165</v>
+      </c>
+      <c r="B53" t="s">
+        <v>166</v>
+      </c>
+      <c r="C53" t="s">
+        <v>378</v>
+      </c>
+      <c r="D53" t="s">
+        <v>167</v>
+      </c>
+      <c r="E53" t="s">
         <v>168</v>
       </c>
-      <c r="B53" t="s">
-        <v>169</v>
-      </c>
-      <c r="C53" t="s">
-        <v>170</v>
-      </c>
-      <c r="D53" t="s">
-        <v>171</v>
-      </c>
-      <c r="E53" s="2">
+      <c r="F53" s="2">
         <v>21893</v>
       </c>
-      <c r="F53" s="2">
-        <v>17514</v>
-      </c>
-      <c r="G53" s="2">
-        <v>15229.57</v>
-      </c>
-      <c r="H53" s="2">
-        <v>17133.650000000001</v>
-      </c>
-      <c r="I53" s="2">
-        <v>17818.599999999999</v>
+      <c r="G53" s="3">
+        <v>13845.063636363635</v>
+      </c>
+      <c r="H53" s="6">
+        <v>15921.823181818179</v>
+      </c>
+      <c r="I53" s="6">
+        <v>20698.370136363636</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B54" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C54" t="s">
-        <v>173</v>
+        <v>378</v>
       </c>
       <c r="D54" t="s">
-        <v>174</v>
-      </c>
-      <c r="E54" s="2">
+        <v>170</v>
+      </c>
+      <c r="E54" t="s">
+        <v>171</v>
+      </c>
+      <c r="F54" s="2">
         <v>29928</v>
       </c>
-      <c r="F54" s="2">
-        <v>23942</v>
-      </c>
-      <c r="G54" s="2">
-        <v>20819.13</v>
-      </c>
-      <c r="H54" s="2">
-        <v>23421.91</v>
-      </c>
-      <c r="I54" s="2">
-        <v>24358.38</v>
+      <c r="G54" s="3">
+        <v>18926.481818181819</v>
+      </c>
+      <c r="H54" s="6">
+        <v>21765.45409090909</v>
+      </c>
+      <c r="I54" s="6">
+        <v>28295.090318181818</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B55" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C55" t="s">
-        <v>176</v>
+        <v>378</v>
       </c>
       <c r="D55" t="s">
-        <v>177</v>
-      </c>
-      <c r="E55" s="2">
+        <v>173</v>
+      </c>
+      <c r="E55" t="s">
+        <v>174</v>
+      </c>
+      <c r="F55" s="2">
         <v>23234</v>
       </c>
-      <c r="F55" s="2">
-        <v>18587</v>
-      </c>
-      <c r="G55" s="2">
-        <v>16162.61</v>
-      </c>
-      <c r="H55" s="2">
-        <v>18183.13</v>
-      </c>
-      <c r="I55" s="2">
-        <v>18910.25</v>
+      <c r="G55" s="3">
+        <v>14693.281818181818</v>
+      </c>
+      <c r="H55" s="6">
+        <v>16897.27409090909</v>
+      </c>
+      <c r="I55" s="6">
+        <v>21966.456318181819</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B56" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C56" t="s">
-        <v>179</v>
+        <v>378</v>
       </c>
       <c r="D56" t="s">
-        <v>180</v>
-      </c>
-      <c r="E56" s="2">
+        <v>176</v>
+      </c>
+      <c r="E56" t="s">
+        <v>177</v>
+      </c>
+      <c r="F56" s="2">
         <v>31240</v>
       </c>
-      <c r="F56" s="2">
-        <v>24992</v>
-      </c>
-      <c r="G56" s="2">
-        <v>21732.17</v>
-      </c>
-      <c r="H56" s="2">
-        <v>24448.7</v>
-      </c>
-      <c r="I56" s="2">
-        <v>25426.639999999999</v>
+      <c r="G56" s="3">
+        <v>19756.518181818177</v>
+      </c>
+      <c r="H56" s="6">
+        <v>22719.995909090903</v>
+      </c>
+      <c r="I56" s="6">
+        <v>29535.994681818174</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B57" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C57" t="s">
-        <v>182</v>
+        <v>378</v>
       </c>
       <c r="D57" t="s">
-        <v>183</v>
-      </c>
-      <c r="E57" s="2">
+        <v>179</v>
+      </c>
+      <c r="E57" t="s">
+        <v>180</v>
+      </c>
+      <c r="F57" s="2">
         <v>12224</v>
       </c>
-      <c r="F57" s="2">
-        <v>9779</v>
-      </c>
-      <c r="G57" s="2">
-        <v>8503.48</v>
-      </c>
-      <c r="H57" s="2">
-        <v>9566.61</v>
-      </c>
-      <c r="I57" s="2">
-        <v>9949.07</v>
+      <c r="G57" s="3">
+        <v>7730.4363636363623</v>
+      </c>
+      <c r="H57" s="6">
+        <v>8890.0018181818159</v>
+      </c>
+      <c r="I57" s="6">
+        <v>11557.00236363636</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>181</v>
+      </c>
+      <c r="B58" t="s">
+        <v>182</v>
+      </c>
+      <c r="C58" t="s">
+        <v>378</v>
+      </c>
+      <c r="D58" t="s">
+        <v>183</v>
+      </c>
+      <c r="E58" t="s">
         <v>184</v>
       </c>
-      <c r="B58" t="s">
-        <v>185</v>
-      </c>
-      <c r="C58" t="s">
-        <v>186</v>
-      </c>
-      <c r="D58" t="s">
-        <v>187</v>
-      </c>
-      <c r="E58" s="2">
+      <c r="F58" s="2">
         <v>8125</v>
       </c>
-      <c r="F58" s="2">
-        <v>6500</v>
-      </c>
-      <c r="G58" s="2">
-        <v>5652.17</v>
-      </c>
-      <c r="H58" s="2">
-        <v>6358.7</v>
-      </c>
-      <c r="I58" s="2">
-        <v>6613.04</v>
+      <c r="G58" s="3">
+        <v>5138.3363636363629</v>
+      </c>
+      <c r="H58" s="6">
+        <v>5909.0868181818169</v>
+      </c>
+      <c r="I58" s="6">
+        <v>7681.8128636363617</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>185</v>
+      </c>
+      <c r="B59" t="s">
+        <v>186</v>
+      </c>
+      <c r="C59" t="s">
+        <v>378</v>
+      </c>
+      <c r="D59" t="s">
+        <v>187</v>
+      </c>
+      <c r="E59" t="s">
         <v>188</v>
       </c>
-      <c r="B59" t="s">
-        <v>189</v>
-      </c>
-      <c r="C59" t="s">
-        <v>190</v>
-      </c>
-      <c r="D59" t="s">
-        <v>191</v>
-      </c>
-      <c r="E59" s="2">
+      <c r="F59" s="2">
         <v>14238</v>
       </c>
-      <c r="F59" s="2">
-        <v>11390</v>
-      </c>
-      <c r="G59" s="2">
-        <v>9904.35</v>
-      </c>
-      <c r="H59" s="2">
-        <v>11142.78</v>
-      </c>
-      <c r="I59" s="2">
-        <v>11588.09</v>
+      <c r="G59" s="3">
+        <v>9003.954545454546</v>
+      </c>
+      <c r="H59" s="6">
+        <v>10354.547727272728</v>
+      </c>
+      <c r="I59" s="6">
+        <v>13460.912045454546</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>189</v>
+      </c>
+      <c r="B60" t="s">
+        <v>190</v>
+      </c>
+      <c r="C60" t="s">
+        <v>378</v>
+      </c>
+      <c r="D60" t="s">
+        <v>191</v>
+      </c>
+      <c r="E60" t="s">
         <v>192</v>
       </c>
-      <c r="B60" t="s">
-        <v>193</v>
-      </c>
-      <c r="C60" t="s">
-        <v>194</v>
-      </c>
-      <c r="D60" t="s">
-        <v>195</v>
-      </c>
-      <c r="E60" s="2">
+      <c r="F60" s="2">
         <v>2350</v>
       </c>
-      <c r="F60" s="2">
-        <v>1880</v>
-      </c>
-      <c r="G60" s="2">
-        <v>1634.78</v>
-      </c>
-      <c r="H60" s="2">
-        <v>1839.13</v>
-      </c>
-      <c r="I60" s="2">
-        <v>1912.69</v>
+      <c r="G60" s="3">
+        <v>1486.1636363636362</v>
+      </c>
+      <c r="H60" s="6">
+        <v>1709.0881818181815</v>
+      </c>
+      <c r="I60" s="6">
+        <v>2221.8146363636361</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B61" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C61" t="s">
-        <v>197</v>
+        <v>378</v>
       </c>
       <c r="D61" t="s">
-        <v>198</v>
-      </c>
-      <c r="E61" s="2">
+        <v>194</v>
+      </c>
+      <c r="E61" t="s">
+        <v>195</v>
+      </c>
+      <c r="F61" s="2">
         <v>13094</v>
       </c>
-      <c r="F61" s="2">
-        <v>10475</v>
-      </c>
-      <c r="G61" s="2">
-        <v>9108.7000000000007</v>
-      </c>
-      <c r="H61" s="2">
-        <v>10247.48</v>
-      </c>
-      <c r="I61" s="2">
-        <v>10657.18</v>
+      <c r="G61" s="3">
+        <v>8280.636363636364</v>
+      </c>
+      <c r="H61" s="6">
+        <v>9522.7318181818173</v>
+      </c>
+      <c r="I61" s="6">
+        <v>12379.551363636363</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B62" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C62" t="s">
-        <v>200</v>
+        <v>378</v>
       </c>
       <c r="D62" t="s">
-        <v>201</v>
-      </c>
-      <c r="E62" s="2">
+        <v>197</v>
+      </c>
+      <c r="E62" t="s">
+        <v>198</v>
+      </c>
+      <c r="F62" s="2">
         <v>20155</v>
       </c>
-      <c r="F62" s="2">
-        <v>16124</v>
-      </c>
-      <c r="G62" s="2">
-        <v>14020.87</v>
-      </c>
-      <c r="H62" s="2">
-        <v>15773.48</v>
-      </c>
-      <c r="I62" s="2">
-        <v>16404.419999999998</v>
+      <c r="G62" s="3">
+        <v>12746.245454545455</v>
+      </c>
+      <c r="H62" s="6">
+        <v>14658.182272727272</v>
+      </c>
+      <c r="I62" s="6">
+        <v>19055.636954545455</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C63" t="s">
-        <v>203</v>
+        <v>378</v>
       </c>
       <c r="D63" t="s">
-        <v>204</v>
-      </c>
-      <c r="E63" s="2">
+        <v>200</v>
+      </c>
+      <c r="E63" t="s">
+        <v>201</v>
+      </c>
+      <c r="F63" s="2">
         <v>6523</v>
       </c>
-      <c r="F63" s="2">
-        <v>5218</v>
-      </c>
-      <c r="G63" s="2">
-        <v>4537.3900000000003</v>
-      </c>
-      <c r="H63" s="2">
-        <v>5104.96</v>
-      </c>
-      <c r="I63" s="2">
-        <v>5308.75</v>
+      <c r="G63" s="3">
+        <v>4124.8999999999996</v>
+      </c>
+      <c r="H63" s="6">
+        <v>4743.6349999999993</v>
+      </c>
+      <c r="I63" s="6">
+        <v>6166.7254999999996</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B64" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C64" t="s">
-        <v>206</v>
+        <v>378</v>
       </c>
       <c r="D64" t="s">
-        <v>207</v>
-      </c>
-      <c r="E64" s="2">
+        <v>203</v>
+      </c>
+      <c r="E64" t="s">
+        <v>204</v>
+      </c>
+      <c r="F64" s="2">
         <v>13545</v>
       </c>
-      <c r="F64" s="2">
-        <v>10836</v>
-      </c>
-      <c r="G64" s="2">
-        <v>9422.61</v>
-      </c>
-      <c r="H64" s="2">
-        <v>10600.43</v>
-      </c>
-      <c r="I64" s="2">
-        <v>11024.45</v>
+      <c r="G64" s="3">
+        <v>8566.0090909090904</v>
+      </c>
+      <c r="H64" s="6">
+        <v>9850.9104545454538</v>
+      </c>
+      <c r="I64" s="6">
+        <v>12806.18359090909</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B65" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C65" t="s">
-        <v>209</v>
+        <v>378</v>
       </c>
       <c r="D65" t="s">
-        <v>210</v>
-      </c>
-      <c r="E65" s="2">
+        <v>206</v>
+      </c>
+      <c r="E65" t="s">
+        <v>207</v>
+      </c>
+      <c r="F65" s="2">
         <v>3407</v>
       </c>
-      <c r="F65" s="2">
-        <v>2725</v>
-      </c>
-      <c r="G65" s="2">
-        <v>2369.5700000000002</v>
-      </c>
-      <c r="H65" s="2">
-        <v>2666.35</v>
-      </c>
-      <c r="I65" s="2">
-        <v>2772.4</v>
+      <c r="G65" s="3">
+        <v>2154.1545454545453</v>
+      </c>
+      <c r="H65" s="6">
+        <v>2477.2777272727271</v>
+      </c>
+      <c r="I65" s="6">
+        <v>3220.4610454545455</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B66" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C66" t="s">
-        <v>212</v>
+        <v>378</v>
       </c>
       <c r="D66" t="s">
-        <v>213</v>
-      </c>
-      <c r="E66" s="2">
+        <v>209</v>
+      </c>
+      <c r="E66" t="s">
+        <v>210</v>
+      </c>
+      <c r="F66" s="2">
         <v>794</v>
       </c>
-      <c r="F66" s="2">
-        <v>635</v>
-      </c>
-      <c r="G66" s="2">
-        <v>552.16999999999996</v>
-      </c>
-      <c r="H66" s="2">
-        <v>621.39</v>
-      </c>
-      <c r="I66" s="2">
-        <v>646.04</v>
+      <c r="G66" s="3">
+        <v>501.97272727272718</v>
+      </c>
+      <c r="H66" s="6">
+        <v>577.26863636363623</v>
+      </c>
+      <c r="I66" s="6">
+        <v>750.44922727272717</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B67" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C67" t="s">
-        <v>215</v>
+        <v>378</v>
       </c>
       <c r="D67" t="s">
-        <v>216</v>
-      </c>
-      <c r="E67" s="2">
+        <v>212</v>
+      </c>
+      <c r="E67" t="s">
+        <v>213</v>
+      </c>
+      <c r="F67" s="2">
         <v>1442</v>
       </c>
-      <c r="F67" s="2">
-        <v>1153</v>
-      </c>
-      <c r="G67" s="2">
-        <v>1002.61</v>
-      </c>
-      <c r="H67" s="2">
-        <v>1128.52</v>
-      </c>
-      <c r="I67" s="2">
-        <v>1173.05</v>
+      <c r="G67" s="3">
+        <v>911.46363636363628</v>
+      </c>
+      <c r="H67" s="6">
+        <v>1048.1831818181815</v>
+      </c>
+      <c r="I67" s="6">
+        <v>1362.638136363636</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B68" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C68" t="s">
-        <v>218</v>
+        <v>378</v>
       </c>
       <c r="D68" t="s">
-        <v>219</v>
-      </c>
-      <c r="E68" s="2">
+        <v>215</v>
+      </c>
+      <c r="E68" t="s">
+        <v>216</v>
+      </c>
+      <c r="F68" s="2">
         <v>12100</v>
       </c>
-      <c r="F68" s="2">
-        <v>9680</v>
-      </c>
-      <c r="G68" s="2">
-        <v>8417.39</v>
-      </c>
-      <c r="H68" s="2">
-        <v>9469.57</v>
-      </c>
-      <c r="I68" s="2">
-        <v>9848.35</v>
+      <c r="G68" s="3">
+        <v>7652.1727272727258</v>
+      </c>
+      <c r="H68" s="6">
+        <v>8799.9986363636344</v>
+      </c>
+      <c r="I68" s="6">
+        <v>11439.998227272725</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B69" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C69" t="s">
-        <v>221</v>
+        <v>378</v>
       </c>
       <c r="D69" t="s">
-        <v>222</v>
-      </c>
-      <c r="E69" s="2">
+        <v>218</v>
+      </c>
+      <c r="E69" t="s">
+        <v>219</v>
+      </c>
+      <c r="F69" s="2">
         <v>12412</v>
       </c>
-      <c r="F69" s="2">
-        <v>9929</v>
-      </c>
-      <c r="G69" s="2">
-        <v>8633.91</v>
-      </c>
-      <c r="H69" s="2">
-        <v>9713.74</v>
-      </c>
-      <c r="I69" s="2">
-        <v>10101.67</v>
+      <c r="G69" s="3">
+        <v>7849.0090909090904</v>
+      </c>
+      <c r="H69" s="6">
+        <v>9026.3604545454527</v>
+      </c>
+      <c r="I69" s="6">
+        <v>11734.268590909089</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B70" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C70" t="s">
-        <v>224</v>
+        <v>378</v>
       </c>
       <c r="D70" t="s">
-        <v>225</v>
-      </c>
-      <c r="E70" s="2">
+        <v>221</v>
+      </c>
+      <c r="E70" t="s">
+        <v>222</v>
+      </c>
+      <c r="F70" s="2">
         <v>12232</v>
       </c>
-      <c r="F70" s="2">
-        <v>9785</v>
-      </c>
-      <c r="G70" s="2">
-        <v>8508.7000000000007</v>
-      </c>
-      <c r="H70" s="2">
-        <v>9572.8700000000008</v>
-      </c>
-      <c r="I70" s="2">
-        <v>9955.18</v>
+      <c r="G70" s="3">
+        <v>7735.181818181818</v>
+      </c>
+      <c r="H70" s="6">
+        <v>8895.4590909090894</v>
+      </c>
+      <c r="I70" s="6">
+        <v>11564.096818181817</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B71" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C71" t="s">
-        <v>227</v>
+        <v>378</v>
       </c>
       <c r="D71" t="s">
-        <v>228</v>
-      </c>
-      <c r="E71" s="2">
+        <v>224</v>
+      </c>
+      <c r="E71" t="s">
+        <v>225</v>
+      </c>
+      <c r="F71" s="2">
         <v>5484</v>
       </c>
-      <c r="F71" s="2">
-        <v>4675</v>
-      </c>
-      <c r="G71" s="2">
-        <v>4065.22</v>
-      </c>
-      <c r="H71" s="2">
-        <v>4291.83</v>
-      </c>
-      <c r="I71" s="2">
-        <v>4756.3100000000004</v>
+      <c r="G71" s="3">
+        <v>3695.6545454545449</v>
+      </c>
+      <c r="H71" s="6">
+        <v>4250.0027272727266</v>
+      </c>
+      <c r="I71" s="6">
+        <v>5525.003545454545</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B72" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C72" t="s">
-        <v>230</v>
+        <v>378</v>
       </c>
       <c r="D72" t="s">
-        <v>231</v>
-      </c>
-      <c r="E72" s="2">
+        <v>227</v>
+      </c>
+      <c r="E72" t="s">
+        <v>228</v>
+      </c>
+      <c r="F72" s="2">
         <v>1442</v>
       </c>
-      <c r="F72" s="2">
-        <v>1153</v>
-      </c>
-      <c r="G72" s="2">
-        <v>1002.61</v>
-      </c>
-      <c r="H72" s="2">
-        <v>1128.52</v>
-      </c>
-      <c r="I72" s="2">
-        <v>1173.05</v>
+      <c r="G72" s="3">
+        <v>911.46363636363628</v>
+      </c>
+      <c r="H72" s="6">
+        <v>1048.1831818181815</v>
+      </c>
+      <c r="I72" s="6">
+        <v>1362.638136363636</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B73" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C73" t="s">
-        <v>233</v>
+        <v>378</v>
       </c>
       <c r="D73" t="s">
-        <v>234</v>
-      </c>
-      <c r="E73" s="2">
+        <v>230</v>
+      </c>
+      <c r="E73" t="s">
+        <v>231</v>
+      </c>
+      <c r="F73" s="2">
         <v>1150</v>
       </c>
-      <c r="F73" s="2">
-        <v>920</v>
-      </c>
-      <c r="G73" s="2">
-        <v>800</v>
-      </c>
-      <c r="H73" s="2">
-        <v>900</v>
-      </c>
-      <c r="I73" s="2">
-        <v>936</v>
+      <c r="G73" s="3">
+        <v>727.27272727272725</v>
+      </c>
+      <c r="H73" s="6">
+        <v>836.36363636363626</v>
+      </c>
+      <c r="I73" s="6">
+        <v>1087.2727272727273</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B74" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C74" t="s">
-        <v>236</v>
+        <v>378</v>
       </c>
       <c r="D74" t="s">
-        <v>237</v>
-      </c>
-      <c r="E74" s="2">
+        <v>233</v>
+      </c>
+      <c r="E74" t="s">
+        <v>234</v>
+      </c>
+      <c r="F74" s="2">
         <v>7165</v>
       </c>
-      <c r="F74" s="2">
-        <v>5730</v>
-      </c>
-      <c r="G74" s="2">
-        <v>4982.6099999999997</v>
-      </c>
-      <c r="H74" s="2">
-        <v>5607.39</v>
-      </c>
-      <c r="I74" s="2">
-        <v>5829.65</v>
+      <c r="G74" s="3">
+        <v>4529.6454545454535</v>
+      </c>
+      <c r="H74" s="6">
+        <v>5209.0922727272709</v>
+      </c>
+      <c r="I74" s="6">
+        <v>6771.8199545454527</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B75" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C75" t="s">
-        <v>239</v>
+        <v>378</v>
       </c>
       <c r="D75" t="s">
-        <v>240</v>
-      </c>
-      <c r="E75" s="2">
+        <v>236</v>
+      </c>
+      <c r="E75" t="s">
+        <v>237</v>
+      </c>
+      <c r="F75" s="2">
         <v>20145</v>
       </c>
-      <c r="F75" s="2">
-        <v>16115</v>
-      </c>
-      <c r="G75" s="2">
-        <v>14013.04</v>
-      </c>
-      <c r="H75" s="2">
-        <v>15765.65</v>
-      </c>
-      <c r="I75" s="2">
-        <v>16395.259999999998</v>
+      <c r="G75" s="3">
+        <v>12739.127272727272</v>
+      </c>
+      <c r="H75" s="6">
+        <v>14649.996363636361</v>
+      </c>
+      <c r="I75" s="6">
+        <v>19044.995272727268</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>238</v>
+      </c>
+      <c r="B76" t="s">
+        <v>239</v>
+      </c>
+      <c r="C76" t="s">
+        <v>378</v>
+      </c>
+      <c r="D76" t="s">
+        <v>240</v>
+      </c>
+      <c r="E76" t="s">
         <v>241</v>
       </c>
-      <c r="B76" t="s">
-        <v>242</v>
-      </c>
-      <c r="C76" t="s">
-        <v>243</v>
-      </c>
-      <c r="D76" t="s">
-        <v>244</v>
-      </c>
-      <c r="E76" s="2">
+      <c r="F76" s="2">
         <v>2444</v>
       </c>
-      <c r="F76" s="2">
-        <v>1955</v>
-      </c>
-      <c r="G76" s="2">
-        <v>1700</v>
-      </c>
-      <c r="H76" s="2">
-        <v>1912.7</v>
-      </c>
-      <c r="I76" s="2">
-        <v>1989</v>
+      <c r="G76" s="3">
+        <v>1545.4545454545453</v>
+      </c>
+      <c r="H76" s="6">
+        <v>1777.272727272727</v>
+      </c>
+      <c r="I76" s="6">
+        <v>2310.454545454545</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B77" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C77" t="s">
-        <v>246</v>
+        <v>378</v>
       </c>
       <c r="D77" t="s">
-        <v>247</v>
-      </c>
-      <c r="E77" s="2">
+        <v>243</v>
+      </c>
+      <c r="E77" t="s">
+        <v>244</v>
+      </c>
+      <c r="F77" s="2">
         <v>3188</v>
       </c>
-      <c r="F77" s="2">
-        <v>2550</v>
-      </c>
-      <c r="G77" s="2">
-        <v>2217.39</v>
-      </c>
-      <c r="H77" s="2">
-        <v>2494.96</v>
-      </c>
-      <c r="I77" s="2">
-        <v>2594.35</v>
+      <c r="G77" s="3">
+        <v>2015.8090909090906</v>
+      </c>
+      <c r="H77" s="6">
+        <v>2318.1804545454543</v>
+      </c>
+      <c r="I77" s="6">
+        <v>3013.6345909090905</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B78" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C78" t="s">
-        <v>249</v>
+        <v>378</v>
       </c>
       <c r="D78" t="s">
-        <v>250</v>
-      </c>
-      <c r="E78" s="2">
+        <v>246</v>
+      </c>
+      <c r="E78" t="s">
+        <v>247</v>
+      </c>
+      <c r="F78" s="2">
         <v>1482</v>
       </c>
-      <c r="F78" s="2">
-        <v>1185</v>
-      </c>
-      <c r="G78" s="2">
-        <v>1030.43</v>
-      </c>
-      <c r="H78" s="2">
-        <v>1159.83</v>
-      </c>
-      <c r="I78" s="2">
-        <v>1205.5999999999999</v>
+      <c r="G78" s="3">
+        <v>936.75454545454545</v>
+      </c>
+      <c r="H78" s="6">
+        <v>1077.2677272727271</v>
+      </c>
+      <c r="I78" s="6">
+        <v>1400.4480454545453</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>248</v>
+      </c>
+      <c r="B79" t="s">
+        <v>249</v>
+      </c>
+      <c r="C79" t="s">
+        <v>378</v>
+      </c>
+      <c r="D79" t="s">
+        <v>250</v>
+      </c>
+      <c r="E79" t="s">
         <v>251</v>
       </c>
-      <c r="B79" t="s">
-        <v>252</v>
-      </c>
-      <c r="C79" t="s">
-        <v>253</v>
-      </c>
-      <c r="D79" t="s">
-        <v>254</v>
-      </c>
-      <c r="E79" s="2">
+      <c r="F79" s="2">
         <v>1637</v>
       </c>
-      <c r="F79" s="2">
-        <v>1309</v>
-      </c>
-      <c r="G79" s="2">
-        <v>1138.26</v>
-      </c>
-      <c r="H79" s="2">
-        <v>1281.1300000000001</v>
-      </c>
-      <c r="I79" s="2">
-        <v>1331.76</v>
+      <c r="G79" s="3">
+        <v>1034.7818181818182</v>
+      </c>
+      <c r="H79" s="6">
+        <v>1189.9990909090907</v>
+      </c>
+      <c r="I79" s="6">
+        <v>1546.998818181818</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>252</v>
+      </c>
+      <c r="B80" t="s">
+        <v>253</v>
+      </c>
+      <c r="C80" t="s">
+        <v>378</v>
+      </c>
+      <c r="D80" t="s">
+        <v>254</v>
+      </c>
+      <c r="E80" t="s">
         <v>255</v>
       </c>
-      <c r="B80" t="s">
-        <v>256</v>
-      </c>
-      <c r="C80" t="s">
-        <v>257</v>
-      </c>
-      <c r="D80" t="s">
-        <v>258</v>
-      </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>1763</v>
       </c>
-      <c r="F80" s="2">
-        <v>1410</v>
-      </c>
-      <c r="G80" s="2">
-        <v>1226.0899999999999</v>
-      </c>
-      <c r="H80" s="2">
-        <v>1379.74</v>
-      </c>
-      <c r="I80" s="2">
-        <v>1434.53</v>
+      <c r="G80" s="3">
+        <v>1114.6272727272726</v>
+      </c>
+      <c r="H80" s="6">
+        <v>1281.8213636363635</v>
+      </c>
+      <c r="I80" s="6">
+        <v>1666.3677727272725</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B81" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C81" t="s">
-        <v>260</v>
+        <v>378</v>
       </c>
       <c r="D81" t="s">
-        <v>261</v>
-      </c>
-      <c r="E81" s="2">
+        <v>257</v>
+      </c>
+      <c r="E81" t="s">
+        <v>258</v>
+      </c>
+      <c r="F81" s="2">
         <v>1875</v>
       </c>
-      <c r="F81" s="2">
-        <v>1500</v>
-      </c>
-      <c r="G81" s="2">
-        <v>1304.3499999999999</v>
-      </c>
-      <c r="H81" s="2">
-        <v>1467.39</v>
-      </c>
-      <c r="I81" s="2">
-        <v>1526.09</v>
+      <c r="G81" s="3">
+        <v>1185.772727272727</v>
+      </c>
+      <c r="H81" s="6">
+        <v>1363.6386363636359</v>
+      </c>
+      <c r="I81" s="6">
+        <v>1772.7302272727268</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>259</v>
+      </c>
+      <c r="B82" t="s">
+        <v>260</v>
+      </c>
+      <c r="C82" t="s">
+        <v>378</v>
+      </c>
+      <c r="D82" t="s">
+        <v>261</v>
+      </c>
+      <c r="E82" t="s">
         <v>262</v>
       </c>
-      <c r="B82" t="s">
-        <v>263</v>
-      </c>
-      <c r="C82" t="s">
-        <v>264</v>
-      </c>
-      <c r="D82" t="s">
-        <v>265</v>
-      </c>
-      <c r="E82" s="2">
+      <c r="F82" s="2">
         <v>93240</v>
       </c>
-      <c r="F82" s="2">
-        <v>74590</v>
-      </c>
-      <c r="G82" s="2">
-        <v>64860.87</v>
-      </c>
-      <c r="H82" s="2">
-        <v>72970.429999999993</v>
-      </c>
-      <c r="I82" s="2">
-        <v>75887.22</v>
+      <c r="G82" s="3">
+        <v>58964.427272727269</v>
+      </c>
+      <c r="H82" s="6">
+        <v>67809.091363636355</v>
+      </c>
+      <c r="I82" s="6">
+        <v>88151.81877272726</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B83" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C83" t="s">
-        <v>267</v>
+        <v>378</v>
       </c>
       <c r="D83" t="s">
-        <v>268</v>
-      </c>
-      <c r="E83" s="2">
+        <v>264</v>
+      </c>
+      <c r="E83" t="s">
+        <v>265</v>
+      </c>
+      <c r="F83" s="2">
         <v>95675</v>
       </c>
-      <c r="F83" s="2">
-        <v>76540</v>
-      </c>
-      <c r="G83" s="2">
-        <v>66556.52</v>
-      </c>
-      <c r="H83" s="2">
-        <v>74876.09</v>
-      </c>
-      <c r="I83" s="2">
-        <v>77871.13</v>
+      <c r="G83" s="3">
+        <v>60505.927272727269</v>
+      </c>
+      <c r="H83" s="6">
+        <v>69581.816363636361</v>
+      </c>
+      <c r="I83" s="6">
+        <v>90456.36127272727</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B84" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C84" t="s">
-        <v>270</v>
+        <v>378</v>
       </c>
       <c r="D84" t="s">
-        <v>271</v>
-      </c>
-      <c r="E84" s="2">
+        <v>267</v>
+      </c>
+      <c r="E84" t="s">
+        <v>268</v>
+      </c>
+      <c r="F84" s="2">
         <v>66325</v>
       </c>
-      <c r="F84" s="2">
-        <v>53060</v>
-      </c>
-      <c r="G84" s="2">
-        <v>46139.13</v>
-      </c>
-      <c r="H84" s="2">
-        <v>51906.52</v>
-      </c>
-      <c r="I84" s="2">
-        <v>53982.78</v>
+      <c r="G84" s="3">
+        <v>41944.663636363628</v>
+      </c>
+      <c r="H84" s="6">
+        <v>48236.363181818168</v>
+      </c>
+      <c r="I84" s="6">
+        <v>62707.272136363623</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B85" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C85" t="s">
-        <v>273</v>
+        <v>378</v>
       </c>
       <c r="D85" t="s">
-        <v>274</v>
-      </c>
-      <c r="E85" s="2">
+        <v>270</v>
+      </c>
+      <c r="E85" t="s">
+        <v>271</v>
+      </c>
+      <c r="F85" s="2">
         <v>69825</v>
       </c>
-      <c r="F85" s="2">
-        <v>55860</v>
-      </c>
-      <c r="G85" s="2">
-        <v>48573.91</v>
-      </c>
-      <c r="H85" s="2">
-        <v>54645.65</v>
-      </c>
-      <c r="I85" s="2">
-        <v>56831.47</v>
+      <c r="G85" s="3">
+        <v>44158.1</v>
+      </c>
+      <c r="H85" s="6">
+        <v>50781.814999999995</v>
+      </c>
+      <c r="I85" s="6">
+        <v>66016.359499999991</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B86" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C86" t="s">
-        <v>276</v>
+        <v>378</v>
       </c>
       <c r="D86" t="s">
-        <v>277</v>
-      </c>
-      <c r="E86" s="2">
+        <v>273</v>
+      </c>
+      <c r="E86" t="s">
+        <v>274</v>
+      </c>
+      <c r="F86" s="2">
         <v>105685</v>
       </c>
-      <c r="F86" s="2">
-        <v>84545</v>
-      </c>
-      <c r="G86" s="2">
-        <v>73517.39</v>
-      </c>
-      <c r="H86" s="2">
-        <v>82710</v>
-      </c>
-      <c r="I86" s="2">
-        <v>86015.35</v>
+      <c r="G86" s="3">
+        <v>66833.990909090906</v>
+      </c>
+      <c r="H86" s="6">
+        <v>76859.089545454539</v>
+      </c>
+      <c r="I86" s="6">
+        <v>99916.816409090898</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B87" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C87" t="s">
-        <v>279</v>
+        <v>378</v>
       </c>
       <c r="D87" t="s">
-        <v>280</v>
-      </c>
-      <c r="E87" s="2">
+        <v>276</v>
+      </c>
+      <c r="E87" t="s">
+        <v>277</v>
+      </c>
+      <c r="F87" s="2">
         <v>108300</v>
       </c>
-      <c r="F87" s="2">
-        <v>86640</v>
-      </c>
-      <c r="G87" s="2">
-        <v>75339.13</v>
-      </c>
-      <c r="H87" s="2">
-        <v>84756.52</v>
-      </c>
-      <c r="I87" s="2">
-        <v>88146.78</v>
+      <c r="G87" s="3">
+        <v>68490.118181818179</v>
+      </c>
+      <c r="H87" s="6">
+        <v>78763.635909090895</v>
+      </c>
+      <c r="I87" s="6">
+        <v>102392.72668181817</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B88" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C88" t="s">
-        <v>282</v>
+        <v>378</v>
       </c>
       <c r="D88" t="s">
-        <v>283</v>
-      </c>
-      <c r="E88" s="2">
+        <v>279</v>
+      </c>
+      <c r="E88" t="s">
+        <v>280</v>
+      </c>
+      <c r="F88" s="2">
         <v>78770</v>
       </c>
-      <c r="F88" s="2">
-        <v>63015</v>
-      </c>
-      <c r="G88" s="2">
-        <v>54795.65</v>
-      </c>
-      <c r="H88" s="2">
-        <v>61646.09</v>
-      </c>
-      <c r="I88" s="2">
-        <v>64110.91</v>
+      <c r="G88" s="3">
+        <v>49814.227272727272</v>
+      </c>
+      <c r="H88" s="6">
+        <v>57286.361363636359</v>
+      </c>
+      <c r="I88" s="6">
+        <v>74472.269772727275</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B89" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C89" t="s">
-        <v>285</v>
+        <v>378</v>
       </c>
       <c r="D89" t="s">
-        <v>286</v>
-      </c>
-      <c r="E89" s="2">
+        <v>282</v>
+      </c>
+      <c r="E89" t="s">
+        <v>283</v>
+      </c>
+      <c r="F89" s="2">
         <v>82715</v>
       </c>
-      <c r="F89" s="2">
-        <v>66170</v>
-      </c>
-      <c r="G89" s="2">
-        <v>57539.13</v>
-      </c>
-      <c r="H89" s="2">
-        <v>64733.48</v>
-      </c>
-      <c r="I89" s="2">
-        <v>67320.78</v>
+      <c r="G89" s="3">
+        <v>52308.299999999996</v>
+      </c>
+      <c r="H89" s="6">
+        <v>60154.544999999991</v>
+      </c>
+      <c r="I89" s="6">
+        <v>78200.90849999999</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B90" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C90" t="s">
-        <v>288</v>
+        <v>378</v>
       </c>
       <c r="D90" t="s">
-        <v>289</v>
-      </c>
-      <c r="E90" s="2">
+        <v>285</v>
+      </c>
+      <c r="E90" t="s">
+        <v>286</v>
+      </c>
+      <c r="F90" s="2">
         <v>149375</v>
       </c>
-      <c r="F90" s="2">
-        <v>119500</v>
-      </c>
-      <c r="G90" s="2">
-        <v>103913.04</v>
-      </c>
-      <c r="H90" s="2">
-        <v>116902.17</v>
-      </c>
-      <c r="I90" s="2">
-        <v>121578.26</v>
+      <c r="G90" s="3">
+        <v>94466.39999999998</v>
+      </c>
+      <c r="H90" s="6">
+        <v>108636.35999999997</v>
+      </c>
+      <c r="I90" s="6">
+        <v>141227.26799999998</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B91" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C91" t="s">
-        <v>291</v>
+        <v>378</v>
       </c>
       <c r="D91" t="s">
-        <v>292</v>
-      </c>
-      <c r="E91" s="2">
+        <v>288</v>
+      </c>
+      <c r="E91" t="s">
+        <v>289</v>
+      </c>
+      <c r="F91" s="2">
         <v>84250</v>
       </c>
-      <c r="F91" s="2">
-        <v>67400</v>
-      </c>
-      <c r="G91" s="2">
-        <v>58608.7</v>
-      </c>
-      <c r="H91" s="2">
-        <v>65934.78</v>
-      </c>
-      <c r="I91" s="2">
-        <v>68572.179999999993</v>
+      <c r="G91" s="3">
+        <v>53280.636363636353</v>
+      </c>
+      <c r="H91" s="6">
+        <v>61272.731818181805</v>
+      </c>
+      <c r="I91" s="6">
+        <v>79654.551363636347</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>290</v>
+      </c>
+      <c r="B92" t="s">
+        <v>291</v>
+      </c>
+      <c r="C92" t="s">
+        <v>379</v>
+      </c>
+      <c r="D92" t="s">
+        <v>292</v>
+      </c>
+      <c r="E92" t="s">
         <v>293</v>
       </c>
-      <c r="B92" t="s">
-        <v>294</v>
-      </c>
-      <c r="C92" t="s">
-        <v>295</v>
-      </c>
-      <c r="D92" t="s">
-        <v>296</v>
-      </c>
-      <c r="E92" s="2">
+      <c r="F92" s="2">
         <v>98</v>
       </c>
-      <c r="F92" s="2">
-        <v>78</v>
-      </c>
-      <c r="G92" s="2">
+      <c r="G92" s="3">
         <v>67.83</v>
       </c>
-      <c r="H92" s="2">
-        <v>76.7</v>
-      </c>
-      <c r="I92" s="2">
-        <v>79.36</v>
+      <c r="H92" s="6">
+        <v>78.004499999999993</v>
+      </c>
+      <c r="I92" s="6">
+        <v>101.40585</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B93" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C93" t="s">
-        <v>298</v>
+        <v>379</v>
       </c>
       <c r="D93" t="s">
-        <v>299</v>
-      </c>
-      <c r="E93" s="2">
+        <v>295</v>
+      </c>
+      <c r="E93" t="s">
+        <v>296</v>
+      </c>
+      <c r="F93" s="2">
         <v>89</v>
       </c>
-      <c r="F93" s="2">
-        <v>71</v>
-      </c>
-      <c r="G93" s="2">
+      <c r="G93" s="3">
         <v>61.74</v>
       </c>
-      <c r="H93" s="2">
-        <v>69.650000000000006</v>
-      </c>
-      <c r="I93" s="2">
-        <v>72.239999999999995</v>
+      <c r="H93" s="6">
+        <v>71.000999999999991</v>
+      </c>
+      <c r="I93" s="6">
+        <v>92.301299999999998</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B94" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C94" t="s">
-        <v>301</v>
+        <v>379</v>
       </c>
       <c r="D94" t="s">
-        <v>302</v>
-      </c>
-      <c r="E94" s="2">
+        <v>298</v>
+      </c>
+      <c r="E94" t="s">
+        <v>299</v>
+      </c>
+      <c r="F94" s="2">
         <v>96</v>
       </c>
-      <c r="F94" s="2">
-        <v>77</v>
-      </c>
-      <c r="G94" s="2">
+      <c r="G94" s="3">
         <v>66.959999999999994</v>
       </c>
-      <c r="H94" s="2">
-        <v>75.13</v>
-      </c>
-      <c r="I94" s="2">
-        <v>78.34</v>
+      <c r="H94" s="6">
+        <v>77.003999999999991</v>
+      </c>
+      <c r="I94" s="6">
+        <v>100.1052</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B95" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C95" t="s">
-        <v>304</v>
+        <v>379</v>
       </c>
       <c r="D95" t="s">
-        <v>305</v>
-      </c>
-      <c r="E95" s="2">
+        <v>301</v>
+      </c>
+      <c r="E95" t="s">
+        <v>302</v>
+      </c>
+      <c r="F95" s="2">
         <v>97</v>
       </c>
-      <c r="F95" s="2">
-        <v>77</v>
-      </c>
-      <c r="G95" s="2">
+      <c r="G95" s="3">
         <v>66.959999999999994</v>
       </c>
-      <c r="H95" s="2">
-        <v>75.91</v>
-      </c>
-      <c r="I95" s="2">
-        <v>78.34</v>
+      <c r="H95" s="6">
+        <v>77.003999999999991</v>
+      </c>
+      <c r="I95" s="6">
+        <v>100.1052</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B96" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C96" t="s">
-        <v>307</v>
+        <v>379</v>
       </c>
       <c r="D96" t="s">
-        <v>308</v>
-      </c>
-      <c r="E96" s="2">
+        <v>304</v>
+      </c>
+      <c r="E96" t="s">
+        <v>305</v>
+      </c>
+      <c r="F96" s="2">
         <v>97</v>
       </c>
-      <c r="F96" s="2">
-        <v>77</v>
-      </c>
-      <c r="G96" s="2">
+      <c r="G96" s="3">
         <v>66.959999999999994</v>
       </c>
-      <c r="H96" s="2">
-        <v>75.91</v>
-      </c>
-      <c r="I96" s="2">
-        <v>78.34</v>
+      <c r="H96" s="6">
+        <v>77.003999999999991</v>
+      </c>
+      <c r="I96" s="6">
+        <v>100.1052</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B97" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C97" t="s">
-        <v>310</v>
+        <v>379</v>
       </c>
       <c r="D97" t="s">
-        <v>311</v>
-      </c>
-      <c r="E97" s="2">
+        <v>307</v>
+      </c>
+      <c r="E97" t="s">
+        <v>308</v>
+      </c>
+      <c r="F97" s="2">
         <v>91</v>
       </c>
-      <c r="F97" s="2">
-        <v>73</v>
-      </c>
-      <c r="G97" s="2">
+      <c r="G97" s="3">
         <v>63.48</v>
       </c>
-      <c r="H97" s="2">
-        <v>71.22</v>
-      </c>
-      <c r="I97" s="2">
-        <v>74.27</v>
+      <c r="H97" s="6">
+        <v>73.001999999999995</v>
+      </c>
+      <c r="I97" s="6">
+        <v>94.902599999999993</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B98" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C98" t="s">
-        <v>313</v>
+        <v>379</v>
       </c>
       <c r="D98" t="s">
-        <v>314</v>
-      </c>
-      <c r="E98" s="2">
+        <v>310</v>
+      </c>
+      <c r="E98" t="s">
+        <v>311</v>
+      </c>
+      <c r="F98" s="2">
         <v>82</v>
       </c>
-      <c r="F98" s="2">
-        <v>66</v>
-      </c>
-      <c r="G98" s="2">
+      <c r="G98" s="3">
         <v>57.39</v>
       </c>
-      <c r="H98" s="2">
-        <v>64.17</v>
-      </c>
-      <c r="I98" s="2">
-        <v>67.150000000000006</v>
+      <c r="H98" s="6">
+        <v>65.998499999999993</v>
+      </c>
+      <c r="I98" s="6">
+        <v>85.798049999999989</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B99" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C99" t="s">
-        <v>316</v>
+        <v>379</v>
       </c>
       <c r="D99" t="s">
-        <v>317</v>
-      </c>
-      <c r="E99" s="2">
+        <v>313</v>
+      </c>
+      <c r="E99" t="s">
+        <v>314</v>
+      </c>
+      <c r="F99" s="2">
         <v>89</v>
       </c>
-      <c r="F99" s="2">
-        <v>71</v>
-      </c>
-      <c r="G99" s="2">
+      <c r="G99" s="3">
         <v>61.74</v>
       </c>
-      <c r="H99" s="2">
-        <v>69.650000000000006</v>
-      </c>
-      <c r="I99" s="2">
-        <v>72.239999999999995</v>
+      <c r="H99" s="6">
+        <v>71.000999999999991</v>
+      </c>
+      <c r="I99" s="6">
+        <v>92.301299999999998</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B100" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C100" t="s">
-        <v>319</v>
+        <v>379</v>
       </c>
       <c r="D100" t="s">
-        <v>320</v>
-      </c>
-      <c r="E100" s="2">
+        <v>316</v>
+      </c>
+      <c r="E100" t="s">
+        <v>317</v>
+      </c>
+      <c r="F100" s="2">
         <v>64</v>
       </c>
-      <c r="F100" s="2">
-        <v>52</v>
-      </c>
-      <c r="G100" s="2">
+      <c r="G100" s="3">
         <v>45.22</v>
       </c>
-      <c r="H100" s="2">
-        <v>50.09</v>
-      </c>
-      <c r="I100" s="2">
-        <v>52.91</v>
+      <c r="H100" s="6">
+        <v>52.002999999999993</v>
+      </c>
+      <c r="I100" s="6">
+        <v>67.603899999999996</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B101" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C101" t="s">
-        <v>322</v>
+        <v>379</v>
       </c>
       <c r="D101" t="s">
-        <v>323</v>
-      </c>
-      <c r="E101" s="2">
+        <v>319</v>
+      </c>
+      <c r="E101" t="s">
+        <v>320</v>
+      </c>
+      <c r="F101" s="2">
         <v>64</v>
       </c>
-      <c r="F101" s="2">
-        <v>52</v>
-      </c>
-      <c r="G101" s="2">
+      <c r="G101" s="3">
         <v>45.22</v>
       </c>
-      <c r="H101" s="2">
-        <v>50.09</v>
-      </c>
-      <c r="I101" s="2">
-        <v>52.91</v>
+      <c r="H101" s="6">
+        <v>52.002999999999993</v>
+      </c>
+      <c r="I101" s="6">
+        <v>67.603899999999996</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>321</v>
+      </c>
+      <c r="B102" t="s">
+        <v>322</v>
+      </c>
+      <c r="C102" t="s">
+        <v>379</v>
+      </c>
+      <c r="D102" t="s">
+        <v>323</v>
+      </c>
+      <c r="E102" t="s">
         <v>324</v>
       </c>
-      <c r="B102" t="s">
-        <v>325</v>
-      </c>
-      <c r="C102" t="s">
-        <v>326</v>
-      </c>
-      <c r="D102" t="s">
-        <v>327</v>
-      </c>
-      <c r="E102" s="2">
+      <c r="F102" s="2">
         <v>6675</v>
       </c>
-      <c r="F102" s="2">
-        <v>5340</v>
-      </c>
-      <c r="G102" s="2">
+      <c r="G102" s="3">
         <v>4643.4799999999996</v>
       </c>
-      <c r="H102" s="2">
-        <v>5223.91</v>
-      </c>
-      <c r="I102" s="2">
-        <v>5432.87</v>
+      <c r="H102" s="6">
+        <v>5340.0019999999995</v>
+      </c>
+      <c r="I102" s="6">
+        <v>6942.0025999999998</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B103" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C103" t="s">
-        <v>329</v>
+        <v>379</v>
       </c>
       <c r="D103" t="s">
-        <v>330</v>
-      </c>
-      <c r="E103" s="2">
+        <v>326</v>
+      </c>
+      <c r="E103" t="s">
+        <v>327</v>
+      </c>
+      <c r="F103" s="2">
         <v>11032</v>
       </c>
-      <c r="F103" s="2">
-        <v>8826</v>
-      </c>
-      <c r="G103" s="2">
+      <c r="G103" s="3">
         <v>7674.78</v>
       </c>
-      <c r="H103" s="2">
-        <v>8633.74</v>
-      </c>
-      <c r="I103" s="2">
-        <v>8979.49</v>
+      <c r="H103" s="6">
+        <v>8825.9969999999994</v>
+      </c>
+      <c r="I103" s="6">
+        <v>11473.7961</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>328</v>
+      </c>
+      <c r="B104" t="s">
+        <v>329</v>
+      </c>
+      <c r="C104" t="s">
+        <v>379</v>
+      </c>
+      <c r="D104" t="s">
+        <v>330</v>
+      </c>
+      <c r="E104" t="s">
         <v>331</v>
       </c>
-      <c r="B104" t="s">
-        <v>332</v>
-      </c>
-      <c r="C104" t="s">
-        <v>333</v>
-      </c>
-      <c r="D104" t="s">
-        <v>334</v>
-      </c>
-      <c r="E104" s="2">
+      <c r="F104" s="2">
         <v>723</v>
       </c>
-      <c r="F104" s="2">
-        <v>578</v>
-      </c>
-      <c r="G104" s="2">
+      <c r="G104" s="3">
         <v>502.61</v>
       </c>
-      <c r="H104" s="2">
-        <v>565.83000000000004</v>
-      </c>
-      <c r="I104" s="2">
-        <v>588.04999999999995</v>
+      <c r="H104" s="6">
+        <v>578.00149999999996</v>
+      </c>
+      <c r="I104" s="6">
+        <v>751.40194999999994</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B105" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C105" t="s">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="D105" t="s">
-        <v>337</v>
-      </c>
-      <c r="E105" s="2">
+        <v>333</v>
+      </c>
+      <c r="E105" t="s">
+        <v>334</v>
+      </c>
+      <c r="F105" s="2">
         <v>806</v>
       </c>
-      <c r="F105" s="2">
-        <v>645</v>
-      </c>
-      <c r="G105" s="2">
+      <c r="G105" s="3">
         <v>560.87</v>
       </c>
-      <c r="H105" s="2">
-        <v>630.78</v>
-      </c>
-      <c r="I105" s="2">
-        <v>656.22</v>
+      <c r="H105" s="6">
+        <v>645.00049999999999</v>
+      </c>
+      <c r="I105" s="6">
+        <v>838.50065000000006</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B106" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C106" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="D106" t="s">
-        <v>340</v>
-      </c>
-      <c r="E106" s="2">
+        <v>336</v>
+      </c>
+      <c r="E106" t="s">
+        <v>337</v>
+      </c>
+      <c r="F106" s="2">
         <v>898</v>
       </c>
-      <c r="F106" s="2">
-        <v>718</v>
-      </c>
-      <c r="G106" s="2">
+      <c r="G106" s="3">
         <v>624.35</v>
       </c>
-      <c r="H106" s="2">
-        <v>702.78</v>
-      </c>
-      <c r="I106" s="2">
-        <v>730.49</v>
+      <c r="H106" s="6">
+        <v>718.00249999999994</v>
+      </c>
+      <c r="I106" s="6">
+        <v>933.40324999999996</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B107" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C107" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="D107" t="s">
-        <v>343</v>
-      </c>
-      <c r="E107" s="2">
+        <v>339</v>
+      </c>
+      <c r="E107" t="s">
+        <v>340</v>
+      </c>
+      <c r="F107" s="2">
         <v>1669</v>
       </c>
-      <c r="F107" s="2">
-        <v>1335</v>
-      </c>
-      <c r="G107" s="2">
+      <c r="G107" s="3">
         <v>1160.8699999999999</v>
       </c>
-      <c r="H107" s="2">
-        <v>1306.17</v>
-      </c>
-      <c r="I107" s="2">
-        <v>1358.22</v>
+      <c r="H107" s="6">
+        <v>1335.0004999999999</v>
+      </c>
+      <c r="I107" s="6">
+        <v>1735.50065</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B108" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C108" t="s">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="D108" t="s">
-        <v>346</v>
-      </c>
-      <c r="E108" s="2">
+        <v>342</v>
+      </c>
+      <c r="E108" t="s">
+        <v>343</v>
+      </c>
+      <c r="F108" s="2">
         <v>1713</v>
       </c>
-      <c r="F108" s="2">
-        <v>1370</v>
-      </c>
-      <c r="G108" s="2">
+      <c r="G108" s="3">
         <v>1191.3</v>
       </c>
-      <c r="H108" s="2">
-        <v>1340.61</v>
-      </c>
-      <c r="I108" s="2">
-        <v>1393.82</v>
+      <c r="H108" s="6">
+        <v>1369.9949999999999</v>
+      </c>
+      <c r="I108" s="6">
+        <v>1780.9934999999998</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B109" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C109" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="D109" t="s">
-        <v>349</v>
-      </c>
-      <c r="E109" s="2">
+        <v>345</v>
+      </c>
+      <c r="E109" t="s">
+        <v>346</v>
+      </c>
+      <c r="F109" s="2">
         <v>1938</v>
       </c>
-      <c r="F109" s="2">
-        <v>1550</v>
-      </c>
-      <c r="G109" s="2">
+      <c r="G109" s="3">
         <v>1347.83</v>
       </c>
-      <c r="H109" s="2">
-        <v>1516.7</v>
-      </c>
-      <c r="I109" s="2">
-        <v>1576.96</v>
+      <c r="H109" s="6">
+        <v>1550.0044999999998</v>
+      </c>
+      <c r="I109" s="6">
+        <v>2015.0058499999998</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B110" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C110" t="s">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c r="D110" t="s">
-        <v>352</v>
-      </c>
-      <c r="E110" s="2">
+        <v>348</v>
+      </c>
+      <c r="E110" t="s">
+        <v>349</v>
+      </c>
+      <c r="F110" s="2">
         <v>3138</v>
       </c>
-      <c r="F110" s="2">
-        <v>2510</v>
-      </c>
-      <c r="G110" s="2">
+      <c r="G110" s="3">
         <v>2182.61</v>
       </c>
-      <c r="H110" s="2">
-        <v>2455.83</v>
-      </c>
-      <c r="I110" s="2">
-        <v>2553.65</v>
+      <c r="H110" s="6">
+        <v>2510.0014999999999</v>
+      </c>
+      <c r="I110" s="6">
+        <v>3263.0019499999999</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B111" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C111" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="D111" t="s">
-        <v>355</v>
-      </c>
-      <c r="E111" s="2">
+        <v>351</v>
+      </c>
+      <c r="E111" t="s">
+        <v>352</v>
+      </c>
+      <c r="F111" s="2">
         <v>3538</v>
       </c>
-      <c r="F111" s="2">
-        <v>2830</v>
-      </c>
-      <c r="G111" s="2">
+      <c r="G111" s="3">
         <v>2460.87</v>
       </c>
-      <c r="H111" s="2">
-        <v>2768.87</v>
-      </c>
-      <c r="I111" s="2">
-        <v>2879.22</v>
+      <c r="H111" s="6">
+        <v>2830.0004999999996</v>
+      </c>
+      <c r="I111" s="6">
+        <v>3679.0006499999995</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>353</v>
+      </c>
+      <c r="B112" t="s">
+        <v>354</v>
+      </c>
+      <c r="C112" t="s">
+        <v>379</v>
+      </c>
+      <c r="D112" t="s">
+        <v>355</v>
+      </c>
+      <c r="E112" t="s">
         <v>356</v>
       </c>
-      <c r="B112" t="s">
-        <v>357</v>
-      </c>
-      <c r="C112" t="s">
-        <v>358</v>
-      </c>
-      <c r="D112" t="s">
-        <v>359</v>
-      </c>
-      <c r="E112" s="2">
+      <c r="F112" s="2">
         <v>440</v>
       </c>
-      <c r="F112" s="2">
-        <v>352</v>
-      </c>
-      <c r="G112" s="2">
+      <c r="G112" s="3">
         <v>306.08999999999997</v>
       </c>
-      <c r="H112" s="2">
-        <v>344.35</v>
-      </c>
-      <c r="I112" s="2">
-        <v>358.13</v>
+      <c r="H112" s="6">
+        <v>352.00349999999992</v>
+      </c>
+      <c r="I112" s="6">
+        <v>457.6045499999999</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B113" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C113" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="D113" t="s">
-        <v>362</v>
-      </c>
-      <c r="E113" s="2">
+        <v>358</v>
+      </c>
+      <c r="E113" t="s">
+        <v>359</v>
+      </c>
+      <c r="F113" s="2">
         <v>440</v>
       </c>
-      <c r="F113" s="2">
-        <v>352</v>
-      </c>
-      <c r="G113" s="2">
+      <c r="G113" s="3">
         <v>306.08999999999997</v>
       </c>
-      <c r="H113" s="2">
-        <v>344.35</v>
-      </c>
-      <c r="I113" s="2">
-        <v>358.13</v>
+      <c r="H113" s="6">
+        <v>352.00349999999992</v>
+      </c>
+      <c r="I113" s="6">
+        <v>457.6045499999999</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B114" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C114" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="D114" t="s">
-        <v>365</v>
-      </c>
-      <c r="E114" s="2">
+        <v>361</v>
+      </c>
+      <c r="E114" t="s">
+        <v>362</v>
+      </c>
+      <c r="F114" s="2">
         <v>440</v>
       </c>
-      <c r="F114" s="2">
-        <v>352</v>
-      </c>
-      <c r="G114" s="2">
+      <c r="G114" s="3">
         <v>306.08999999999997</v>
       </c>
-      <c r="H114" s="2">
-        <v>344.35</v>
-      </c>
-      <c r="I114" s="2">
-        <v>358.13</v>
+      <c r="H114" s="6">
+        <v>352.00349999999992</v>
+      </c>
+      <c r="I114" s="6">
+        <v>457.6045499999999</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>363</v>
+      </c>
+      <c r="B115" t="s">
+        <v>364</v>
+      </c>
+      <c r="C115" t="s">
+        <v>379</v>
+      </c>
+      <c r="D115" t="s">
+        <v>365</v>
+      </c>
+      <c r="E115" t="s">
         <v>366</v>
       </c>
-      <c r="B115" t="s">
-        <v>367</v>
-      </c>
-      <c r="C115" t="s">
-        <v>368</v>
-      </c>
-      <c r="D115" t="s">
-        <v>369</v>
-      </c>
-      <c r="E115" s="2">
+      <c r="F115" s="2">
         <v>1950</v>
       </c>
-      <c r="F115" s="2">
-        <v>1560</v>
-      </c>
-      <c r="G115" s="2">
+      <c r="G115" s="3">
         <v>1356.52</v>
       </c>
-      <c r="H115" s="2">
-        <v>1526.09</v>
-      </c>
-      <c r="I115" s="2">
-        <v>1587.13</v>
+      <c r="H115" s="6">
+        <v>1559.9979999999998</v>
+      </c>
+      <c r="I115" s="6">
+        <v>2027.9973999999997</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B116" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C116" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="D116" t="s">
-        <v>372</v>
-      </c>
-      <c r="E116" s="2">
+        <v>368</v>
+      </c>
+      <c r="E116" t="s">
+        <v>369</v>
+      </c>
+      <c r="F116" s="2">
         <v>1950</v>
       </c>
-      <c r="F116" s="2">
-        <v>1560</v>
-      </c>
-      <c r="G116" s="2">
+      <c r="G116" s="3">
         <v>1356.52</v>
       </c>
-      <c r="H116" s="2">
-        <v>1526.09</v>
-      </c>
-      <c r="I116" s="2">
-        <v>1587.13</v>
+      <c r="H116" s="6">
+        <v>1559.9979999999998</v>
+      </c>
+      <c r="I116" s="6">
+        <v>2027.9973999999997</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B117" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C117" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="D117" t="s">
-        <v>375</v>
-      </c>
-      <c r="E117" s="2">
+        <v>371</v>
+      </c>
+      <c r="E117" t="s">
+        <v>372</v>
+      </c>
+      <c r="F117" s="2">
         <v>1035</v>
       </c>
-      <c r="F117" s="2">
-        <v>825</v>
-      </c>
-      <c r="G117" s="2">
+      <c r="G117" s="3">
         <v>717.39</v>
       </c>
-      <c r="H117" s="2">
-        <v>810</v>
-      </c>
-      <c r="I117" s="2">
-        <v>839.35</v>
+      <c r="H117" s="6">
+        <v>824.99849999999992</v>
+      </c>
+      <c r="I117" s="6">
+        <v>1072.4980499999999</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B118" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C118" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D118" t="s">
-        <v>378</v>
-      </c>
-      <c r="E118" s="2">
+        <v>374</v>
+      </c>
+      <c r="E118" t="s">
+        <v>375</v>
+      </c>
+      <c r="F118" s="2">
         <v>1535</v>
       </c>
-      <c r="F118" s="2">
-        <v>1225</v>
-      </c>
-      <c r="G118" s="2">
+      <c r="G118" s="3">
         <v>1065.22</v>
       </c>
-      <c r="H118" s="2">
-        <v>1201.3</v>
-      </c>
-      <c r="I118" s="2">
-        <v>1246.31</v>
+      <c r="H118" s="6">
+        <v>1225.0029999999999</v>
+      </c>
+      <c r="I118" s="6">
+        <v>1592.5038999999999</v>
       </c>
     </row>
   </sheetData>
